--- a/excels/SP/groupSP_color_space.xlsx
+++ b/excels/SP/groupSP_color_space.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -458,174 +458,174 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1D3-754</t>
+          <t>1D0-849</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="C2" t="n">
-        <v>107.1488437610048</v>
+        <v>162.3758013873058</v>
       </c>
       <c r="D2" t="n">
-        <v>129</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1D2-786</t>
+          <t>1D0-850</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="C3" t="n">
-        <v>125.4501873360809</v>
+        <v>154.264830479677</v>
       </c>
       <c r="D3" t="n">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1D4-728</t>
+          <t>1D0-851</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>215</v>
+        <v>96</v>
       </c>
       <c r="C4" t="n">
-        <v>63.57092362440515</v>
+        <v>148.9811707614422</v>
       </c>
       <c r="D4" t="n">
-        <v>73</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1D2-779</t>
+          <t>1D0-852</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="C5" t="n">
-        <v>118.1962788431471</v>
+        <v>161.0373624978846</v>
       </c>
       <c r="D5" t="n">
-        <v>142</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2D0-847</t>
+          <t>1D0-853</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>135.4706035495256</v>
+        <v>174.0012612983912</v>
       </c>
       <c r="D6" t="n">
-        <v>147</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3D1-809</t>
+          <t>1D0-855</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C7" t="n">
-        <v>133.8928876999556</v>
+        <v>176.8606219252921</v>
       </c>
       <c r="D7" t="n">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3D6-691</t>
+          <t>1D0-856</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233</v>
+        <v>87</v>
       </c>
       <c r="C8" t="n">
-        <v>52.63266135969096</v>
+        <v>170.5740888661486</v>
       </c>
       <c r="D8" t="n">
-        <v>63</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3D0-831</t>
+          <t>1D0-857</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C9" t="n">
-        <v>171.6147564317587</v>
+        <v>161.9949116064566</v>
       </c>
       <c r="D9" t="n">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3D6-690</t>
+          <t>1D1-823</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>234</v>
+        <v>119</v>
       </c>
       <c r="C10" t="n">
-        <v>47.84607859637313</v>
+        <v>132.3157321792288</v>
       </c>
       <c r="D10" t="n">
-        <v>57</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3D1-808</t>
+          <t>1D1-824</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C11" t="n">
-        <v>133.3665127261863</v>
+        <v>131.7954450657955</v>
       </c>
       <c r="D11" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2D0-846</t>
+          <t>1D1-825</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C12" t="n">
-        <v>137.8311058166334</v>
+        <v>133.9804520227946</v>
       </c>
       <c r="D12" t="n">
         <v>151</v>
@@ -634,2564 +634,2564 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2D3-761</t>
+          <t>1D1-826</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="C13" t="n">
-        <v>93.71254782980964</v>
+        <v>143.5855373993757</v>
       </c>
       <c r="D13" t="n">
-        <v>102</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1D4-729</t>
+          <t>1D1-827</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="C14" t="n">
-        <v>63.41276904801472</v>
+        <v>158.6987747600572</v>
       </c>
       <c r="D14" t="n">
-        <v>72</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2D5-724</t>
+          <t>1D1-828</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>227</v>
+        <v>104</v>
       </c>
       <c r="C15" t="n">
-        <v>55.78992163530847</v>
+        <v>153.2217547837282</v>
       </c>
       <c r="D15" t="n">
-        <v>64</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1D3-755</t>
+          <t>1D1-829</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="C16" t="n">
-        <v>93.45185880102275</v>
+        <v>153.954962859416</v>
       </c>
       <c r="D16" t="n">
-        <v>109</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2D4-735</t>
+          <t>1D1-830</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="C17" t="n">
-        <v>57.2785907497781</v>
+        <v>151.1942918899843</v>
       </c>
       <c r="D17" t="n">
-        <v>59</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2D4-737</t>
+          <t>1D2-779</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="C18" t="n">
-        <v>61.99909654150374</v>
+        <v>118.1962788431471</v>
       </c>
       <c r="D18" t="n">
-        <v>72</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1D3-757</t>
+          <t>1D2-780</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="C19" t="n">
-        <v>84.9489434914189</v>
+        <v>113.9630815626697</v>
       </c>
       <c r="D19" t="n">
-        <v>103</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1D2-785</t>
+          <t>1D2-781</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C20" t="n">
-        <v>128.121891445389</v>
+        <v>109.6921567632482</v>
       </c>
       <c r="D20" t="n">
-        <v>150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2D3-763</t>
+          <t>1D2-782</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="C21" t="n">
-        <v>78.06367026809778</v>
+        <v>111.770543957033</v>
       </c>
       <c r="D21" t="n">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2D0-844</t>
+          <t>1D2-783</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="C22" t="n">
-        <v>157.0989544805894</v>
+        <v>93.02740200906047</v>
       </c>
       <c r="D22" t="n">
-        <v>167</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3D0-833</t>
+          <t>1D2-784</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="C23" t="n">
-        <v>158.8915656472422</v>
+        <v>113.2114271067203</v>
       </c>
       <c r="D23" t="n">
-        <v>175</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3D6-687</t>
+          <t>1D2-785</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>243</v>
+        <v>145</v>
       </c>
       <c r="C24" t="n">
-        <v>37.31860685297278</v>
+        <v>128.121891445389</v>
       </c>
       <c r="D24" t="n">
-        <v>38</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3D6-693</t>
+          <t>1D2-786</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>237</v>
+        <v>134</v>
       </c>
       <c r="C25" t="n">
-        <v>47.55061896649631</v>
+        <v>125.4501873360809</v>
       </c>
       <c r="D25" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2D0-845</t>
+          <t>1D3-752</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="C26" t="n">
-        <v>154.7576006526003</v>
+        <v>116.3591462710494</v>
       </c>
       <c r="D26" t="n">
-        <v>166</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2D3-762</t>
+          <t>1D3-753</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="C27" t="n">
-        <v>86.42163318967805</v>
+        <v>125.674313005667</v>
       </c>
       <c r="D27" t="n">
-        <v>95</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1D2-784</t>
+          <t>1D3-754</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C28" t="n">
-        <v>113.2114271067203</v>
+        <v>107.1488437610048</v>
       </c>
       <c r="D28" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1D5-713</t>
+          <t>1D3-755</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="C29" t="n">
-        <v>53.82885459811905</v>
+        <v>93.45185880102275</v>
       </c>
       <c r="D29" t="n">
-        <v>63</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2D4-736</t>
+          <t>1D3-757</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="C30" t="n">
-        <v>63.44291057438089</v>
+        <v>84.9489434914189</v>
       </c>
       <c r="D30" t="n">
-        <v>71</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2D2-788</t>
+          <t>1D3-758</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C31" t="n">
-        <v>103.8903138975732</v>
+        <v>90.52472410343866</v>
       </c>
       <c r="D31" t="n">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1D5-717</t>
+          <t>1D3-759</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="C32" t="n">
-        <v>48.42498941470573</v>
+        <v>83.99439185515644</v>
       </c>
       <c r="D32" t="n">
-        <v>53</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1D0-849</t>
+          <t>1D3-760</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="C33" t="n">
-        <v>162.3758013873058</v>
+        <v>93.94772171942613</v>
       </c>
       <c r="D33" t="n">
-        <v>171</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1D3-752</t>
+          <t>1D3-770</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C34" t="n">
-        <v>116.3591462710494</v>
+        <v>117.5253339665104</v>
       </c>
       <c r="D34" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1D2-780</t>
+          <t>1D3-771</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="C35" t="n">
-        <v>113.9630815626697</v>
+        <v>117.0263387880266</v>
       </c>
       <c r="D35" t="n">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2D0-841</t>
+          <t>1D3-772</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="C36" t="n">
-        <v>170.1098270946185</v>
+        <v>112.0880725594096</v>
       </c>
       <c r="D36" t="n">
-        <v>188</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2D3-766</t>
+          <t>1D3-773</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C37" t="n">
-        <v>105.8370235526329</v>
+        <v>90.54594908069167</v>
       </c>
       <c r="D37" t="n">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3D0-836</t>
+          <t>1D3-774</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="C38" t="n">
-        <v>153.0791359631382</v>
+        <v>86.02289381613686</v>
       </c>
       <c r="D38" t="n">
-        <v>170</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3D0-837</t>
+          <t>1D3-775</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="C39" t="n">
-        <v>168.9177067457539</v>
+        <v>88.70160631413817</v>
       </c>
       <c r="D39" t="n">
-        <v>185</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2D0-840</t>
+          <t>1D3-776</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="C40" t="n">
-        <v>159.5031070869649</v>
+        <v>88.12573713181163</v>
       </c>
       <c r="D40" t="n">
-        <v>181</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1D2-781</t>
+          <t>1D3-777</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C41" t="n">
-        <v>109.6921567632482</v>
+        <v>103.7610007865595</v>
       </c>
       <c r="D41" t="n">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1D3-753</t>
+          <t>1D4-726</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="C42" t="n">
-        <v>125.674313005667</v>
+        <v>61.2739662761</v>
       </c>
       <c r="D42" t="n">
-        <v>153</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1D5-716</t>
+          <t>1D4-727</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>219</v>
       </c>
       <c r="C43" t="n">
-        <v>47.92325997128037</v>
+        <v>63.55475447062163</v>
       </c>
       <c r="D43" t="n">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2D5-708</t>
+          <t>1D4-728</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C44" t="n">
-        <v>54.13933393572541</v>
+        <v>63.57092362440515</v>
       </c>
       <c r="D44" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1D2-783</t>
+          <t>1D4-729</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="C45" t="n">
-        <v>93.02740200906047</v>
+        <v>63.41276904801472</v>
       </c>
       <c r="D45" t="n">
-        <v>106</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2D0-842</t>
+          <t>1D4-730</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>98</v>
+        <v>235</v>
       </c>
       <c r="C46" t="n">
-        <v>157.1687844799031</v>
+        <v>48.53139872387565</v>
       </c>
       <c r="D46" t="n">
-        <v>172</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2D3-765</t>
+          <t>1D4-731</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="C47" t="n">
-        <v>98.10531720178238</v>
+        <v>57.72504395619936</v>
       </c>
       <c r="D47" t="n">
-        <v>115</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3D6-694</t>
+          <t>1D4-732</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>235</v>
       </c>
       <c r="C48" t="n">
-        <v>46.73851492432586</v>
+        <v>60.15573464295142</v>
       </c>
       <c r="D48" t="n">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3D0-835</t>
+          <t>1D4-733</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>95</v>
+        <v>238</v>
       </c>
       <c r="C49" t="n">
-        <v>154.1151541639584</v>
+        <v>66.58756612188652</v>
       </c>
       <c r="D49" t="n">
-        <v>171</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3D0-834</t>
+          <t>1D4-743</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>95</v>
+        <v>241</v>
       </c>
       <c r="C50" t="n">
-        <v>146.7297564023914</v>
+        <v>61.20651337135487</v>
       </c>
       <c r="D50" t="n">
-        <v>159</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3D6-695</t>
+          <t>1D4-744</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C51" t="n">
-        <v>43.08197658634505</v>
+        <v>60.35464242513105</v>
       </c>
       <c r="D51" t="n">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2D3-764</t>
+          <t>1D4-746</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C52" t="n">
-        <v>87.8189454994645</v>
+        <v>66.86106444095171</v>
       </c>
       <c r="D52" t="n">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1D2-782</t>
+          <t>1D4-747</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="C53" t="n">
-        <v>111.770543957033</v>
+        <v>65.71024165208463</v>
       </c>
       <c r="D53" t="n">
-        <v>125</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2D5-709</t>
+          <t>1D4-748</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C54" t="n">
-        <v>54.24821419195813</v>
+        <v>48.87352953823661</v>
       </c>
       <c r="D54" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1D5-715</t>
+          <t>1D4-749</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C55" t="n">
-        <v>47.66346615007006</v>
+        <v>60.28487436656993</v>
       </c>
       <c r="D55" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1D6-672</t>
+          <t>1D4-750</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="C56" t="n">
-        <v>61.35927643675682</v>
+        <v>61.19814690175927</v>
       </c>
       <c r="D56" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2D1-821</t>
+          <t>1D4-751</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="C57" t="n">
-        <v>123.8578095209273</v>
+        <v>70.61992806327439</v>
       </c>
       <c r="D57" t="n">
-        <v>141</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2D6-685</t>
+          <t>1D5-713</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C58" t="n">
-        <v>45.73672713604378</v>
+        <v>53.82885459811905</v>
       </c>
       <c r="D58" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1D1-829</t>
+          <t>1D5-715</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>125</v>
+        <v>226</v>
       </c>
       <c r="C59" t="n">
-        <v>153.954962859416</v>
+        <v>47.66346615007006</v>
       </c>
       <c r="D59" t="n">
-        <v>174</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3D5-725</t>
+          <t>1D5-716</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="C60" t="n">
-        <v>44.01354894292214</v>
+        <v>47.92325997128037</v>
       </c>
       <c r="D60" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1D1-828</t>
+          <t>1D5-717</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="C61" t="n">
-        <v>153.2217547837282</v>
+        <v>48.42498941470573</v>
       </c>
       <c r="D61" t="n">
-        <v>173</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2D6-684</t>
+          <t>1D5-718</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C62" t="n">
-        <v>47.60777114939946</v>
+        <v>41.24780282331512</v>
       </c>
       <c r="D62" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2D1-820</t>
+          <t>1D5-719</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="C63" t="n">
-        <v>105.76810817698</v>
+        <v>50.46026076907617</v>
       </c>
       <c r="D63" t="n">
-        <v>118</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1D6-673</t>
+          <t>1D5-720</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C64" t="n">
-        <v>62.02332742935351</v>
+        <v>49.15935521407304</v>
       </c>
       <c r="D64" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2D4-742</t>
+          <t>1D5-721</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="C65" t="n">
-        <v>57.22847535807046</v>
+        <v>50.2794977586822</v>
       </c>
       <c r="D65" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2D4-740</t>
+          <t>1D5-722</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="C66" t="n">
-        <v>67.40062145917358</v>
+        <v>48.55192938209332</v>
       </c>
       <c r="D66" t="n">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1D6-671</t>
+          <t>1D6-669</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C67" t="n">
-        <v>40.41502496643169</v>
+        <v>43.83248352195</v>
       </c>
       <c r="D67" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2D6-686</t>
+          <t>1D6-671</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C68" t="n">
-        <v>67.80079931618017</v>
+        <v>40.41502496643169</v>
       </c>
       <c r="D68" t="n">
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1D4-748</t>
+          <t>1D6-672</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="C69" t="n">
-        <v>48.87352953823661</v>
+        <v>61.35927643675682</v>
       </c>
       <c r="D69" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2D6-679</t>
+          <t>1D6-673</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C70" t="n">
-        <v>66.8451524958117</v>
+        <v>62.02332742935351</v>
       </c>
       <c r="D70" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3D2-799</t>
+          <t>1D6-674</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>144</v>
+        <v>228</v>
       </c>
       <c r="C71" t="n">
-        <v>109.3852228331833</v>
+        <v>60.2115479436593</v>
       </c>
       <c r="D71" t="n">
-        <v>123</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3D2-798</t>
+          <t>1D6-675</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="C72" t="n">
-        <v>128.4566865227476</v>
+        <v>64.60909002657476</v>
       </c>
       <c r="D72" t="n">
-        <v>145</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2D6-678</t>
+          <t>1D6-676</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C73" t="n">
-        <v>56.42139529806831</v>
+        <v>47.69325262595692</v>
       </c>
       <c r="D73" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1D4-749</t>
+          <t>1D6-677</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C74" t="n">
-        <v>60.28487436656993</v>
+        <v>49.19644834341197</v>
       </c>
       <c r="D74" t="n">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2D4-741</t>
+          <t>2D0-840</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>203</v>
+        <v>94</v>
       </c>
       <c r="C75" t="n">
-        <v>65.64810493156804</v>
+        <v>159.5031070869649</v>
       </c>
       <c r="D75" t="n">
-        <v>72</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1D6-674</t>
+          <t>2D0-841</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>228</v>
+        <v>90</v>
       </c>
       <c r="C76" t="n">
-        <v>60.2115479436593</v>
+        <v>170.1098270946185</v>
       </c>
       <c r="D76" t="n">
-        <v>72</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2D6-683</t>
+          <t>2D0-842</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>240</v>
+        <v>98</v>
       </c>
       <c r="C77" t="n">
-        <v>43.75389721447296</v>
+        <v>157.1687844799031</v>
       </c>
       <c r="D77" t="n">
-        <v>47</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2D6-682</t>
+          <t>2D0-844</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>226</v>
+        <v>98</v>
       </c>
       <c r="C78" t="n">
-        <v>54.78754697746403</v>
+        <v>157.0989544805894</v>
       </c>
       <c r="D78" t="n">
-        <v>60</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1D6-675</t>
+          <t>2D0-845</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="C79" t="n">
-        <v>64.60909002657476</v>
+        <v>154.7576006526003</v>
       </c>
       <c r="D79" t="n">
-        <v>75</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3D5-697</t>
+          <t>2D0-846</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>230</v>
+        <v>114</v>
       </c>
       <c r="C80" t="n">
-        <v>47.60885324979554</v>
+        <v>137.8311058166334</v>
       </c>
       <c r="D80" t="n">
-        <v>52</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2D1-818</t>
+          <t>2D0-847</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C81" t="n">
-        <v>129.2650780769015</v>
+        <v>135.4706035495256</v>
       </c>
       <c r="D81" t="n">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1D6-677</t>
+          <t>2D0-848</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="C82" t="n">
-        <v>49.19644834341197</v>
+        <v>148.103124210116</v>
       </c>
       <c r="D82" t="n">
-        <v>57</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2D6-680</t>
+          <t>2D1-814</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>226</v>
+        <v>121</v>
       </c>
       <c r="C83" t="n">
-        <v>53.08670829011297</v>
+        <v>139.7526662104543</v>
       </c>
       <c r="D83" t="n">
-        <v>63</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1D6-676</t>
+          <t>2D1-815</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="C84" t="n">
-        <v>47.69325262595692</v>
+        <v>147.6519022374769</v>
       </c>
       <c r="D84" t="n">
-        <v>56</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2D1-819</t>
+          <t>2D1-816</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C85" t="n">
-        <v>121.6626991338812</v>
+        <v>130.4537476420884</v>
       </c>
       <c r="D85" t="n">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>3D5-696</t>
+          <t>2D1-817</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>228</v>
+        <v>106</v>
       </c>
       <c r="C86" t="n">
-        <v>55.73365504987279</v>
+        <v>139.2083885857737</v>
       </c>
       <c r="D86" t="n">
-        <v>58</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2D1-814</t>
+          <t>2D1-818</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C87" t="n">
-        <v>139.7526662104543</v>
+        <v>129.2650780769015</v>
       </c>
       <c r="D87" t="n">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>3D2-803</t>
+          <t>2D1-819</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C88" t="n">
-        <v>107.9649971274382</v>
+        <v>121.6626991338812</v>
       </c>
       <c r="D88" t="n">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>3D5-704</t>
+          <t>2D1-820</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="C89" t="n">
-        <v>53.97299948051948</v>
+        <v>105.76810817698</v>
       </c>
       <c r="D89" t="n">
-        <v>57</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3D2-802</t>
+          <t>2D1-821</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C90" t="n">
-        <v>107.6421745603646</v>
+        <v>123.8578095209273</v>
       </c>
       <c r="D90" t="n">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1D4-743</t>
+          <t>2D2-787</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="C91" t="n">
-        <v>61.20651337135487</v>
+        <v>88.13233627050748</v>
       </c>
       <c r="D91" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2D1-815</t>
+          <t>2D2-788</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="C92" t="n">
-        <v>147.6519022374769</v>
+        <v>103.8903138975732</v>
       </c>
       <c r="D92" t="n">
-        <v>165</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>3D5-698</t>
+          <t>2D2-790</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c r="C93" t="n">
-        <v>43.70679984386613</v>
+        <v>101.6732297267631</v>
       </c>
       <c r="D93" t="n">
-        <v>48</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2D1-817</t>
+          <t>2D2-791</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="C94" t="n">
-        <v>139.2083885857737</v>
+        <v>117.8777181616775</v>
       </c>
       <c r="D94" t="n">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1D1-823</t>
+          <t>2D2-792</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="C95" t="n">
-        <v>132.3157321792288</v>
+        <v>109.7859947743976</v>
       </c>
       <c r="D95" t="n">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>3D2-801</t>
+          <t>2D2-793</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C96" t="n">
-        <v>101.8659086010483</v>
+        <v>117.0527740568655</v>
       </c>
       <c r="D96" t="n">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2D1-816</t>
+          <t>2D2-794</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="C97" t="n">
-        <v>130.4537476420884</v>
+        <v>111.3376302223688</v>
       </c>
       <c r="D97" t="n">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>3D5-699</t>
+          <t>2D2-795</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>238</v>
+        <v>157</v>
       </c>
       <c r="C98" t="n">
-        <v>43.33599427896689</v>
+        <v>95.10501837465291</v>
       </c>
       <c r="D98" t="n">
-        <v>47</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1D6-669</t>
+          <t>2D3-761</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>235</v>
+        <v>156</v>
       </c>
       <c r="C99" t="n">
-        <v>43.83248352195</v>
+        <v>93.71254782980964</v>
       </c>
       <c r="D99" t="n">
-        <v>52</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1D4-750</t>
+          <t>2D3-762</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>241</v>
+        <v>165</v>
       </c>
       <c r="C100" t="n">
-        <v>61.19814690175927</v>
+        <v>86.42163318967805</v>
       </c>
       <c r="D100" t="n">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1D4-744</t>
+          <t>2D3-763</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="C101" t="n">
-        <v>60.35464242513105</v>
+        <v>78.06367026809778</v>
       </c>
       <c r="D101" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1D1-826</t>
+          <t>2D3-764</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="C102" t="n">
-        <v>143.5855373993757</v>
+        <v>87.8189454994645</v>
       </c>
       <c r="D102" t="n">
-        <v>163</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>3D5-702</t>
+          <t>2D3-765</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="C103" t="n">
-        <v>45.4603955656819</v>
+        <v>98.10531720178238</v>
       </c>
       <c r="D103" t="n">
-        <v>50</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1D1-827</t>
+          <t>2D3-766</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="C104" t="n">
-        <v>158.6987747600572</v>
+        <v>105.8370235526329</v>
       </c>
       <c r="D104" t="n">
-        <v>186</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1D4-751</t>
+          <t>2D3-768</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="C105" t="n">
-        <v>70.61992806327439</v>
+        <v>102.9880212096848</v>
       </c>
       <c r="D105" t="n">
-        <v>86</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>3D2-804</t>
+          <t>2D3-769</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="C106" t="n">
-        <v>126.2632128943804</v>
+        <v>106.2988444686813</v>
       </c>
       <c r="D106" t="n">
-        <v>142</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>1D4-747</t>
+          <t>2D4-735</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C107" t="n">
-        <v>65.71024165208463</v>
+        <v>57.2785907497781</v>
       </c>
       <c r="D107" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1D1-825</t>
+          <t>2D4-736</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>119</v>
+        <v>219</v>
       </c>
       <c r="C108" t="n">
-        <v>133.9804520227946</v>
+        <v>63.44291057438089</v>
       </c>
       <c r="D108" t="n">
-        <v>151</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>3D2-796</t>
+          <t>2D4-737</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="C109" t="n">
-        <v>130.8017106259207</v>
+        <v>61.99909654150374</v>
       </c>
       <c r="D109" t="n">
-        <v>150</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>3D5-701</t>
+          <t>2D4-738</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="C110" t="n">
-        <v>48.83096763880334</v>
+        <v>72.30095420723866</v>
       </c>
       <c r="D110" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>3D5-700</t>
+          <t>2D4-739</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>220</v>
       </c>
       <c r="C111" t="n">
-        <v>52.00605870080878</v>
+        <v>65.38565429422921</v>
       </c>
       <c r="D111" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>3D2-797</t>
+          <t>2D4-740</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="C112" t="n">
-        <v>130.2123812603886</v>
+        <v>67.40062145917358</v>
       </c>
       <c r="D112" t="n">
-        <v>144</v>
+        <v>76</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1D1-824</t>
+          <t>2D4-741</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="C113" t="n">
-        <v>131.7954450657955</v>
+        <v>65.64810493156804</v>
       </c>
       <c r="D113" t="n">
-        <v>147</v>
+        <v>72</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>1D1-830</t>
+          <t>2D4-742</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="C114" t="n">
-        <v>151.1942918899843</v>
+        <v>57.22847535807046</v>
       </c>
       <c r="D114" t="n">
-        <v>171</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>1D4-746</t>
+          <t>2D5-705</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="C115" t="n">
-        <v>66.86106444095171</v>
+        <v>42.0803382337028</v>
       </c>
       <c r="D115" t="n">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2D2-787</t>
+          <t>2D5-706</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="C116" t="n">
-        <v>88.13233627050748</v>
+        <v>45.07688250940108</v>
       </c>
       <c r="D116" t="n">
-        <v>97</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2D2-793</t>
+          <t>2D5-707</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c r="C117" t="n">
-        <v>117.0527740568655</v>
+        <v>44.70462513884112</v>
       </c>
       <c r="D117" t="n">
-        <v>130</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1D5-718</t>
+          <t>2D5-708</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C118" t="n">
-        <v>41.24780282331512</v>
+        <v>54.13933393572541</v>
       </c>
       <c r="D118" t="n">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1D3-775</t>
+          <t>2D5-709</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="C119" t="n">
-        <v>88.70160631413817</v>
+        <v>54.24821419195813</v>
       </c>
       <c r="D119" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1D0-852</t>
+          <t>2D5-710</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="C120" t="n">
-        <v>161.0373624978846</v>
+        <v>49.72678510278083</v>
       </c>
       <c r="D120" t="n">
-        <v>180</v>
+        <v>57</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2D5-710</t>
+          <t>2D5-711</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C121" t="n">
-        <v>49.72678510278083</v>
+        <v>46.53701456779628</v>
       </c>
       <c r="D121" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2D3-769</t>
+          <t>2D5-712</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="C122" t="n">
-        <v>106.2988444686813</v>
+        <v>46.66322771336582</v>
       </c>
       <c r="D122" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>3D0-839</t>
+          <t>2D5-724</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>72</v>
+        <v>227</v>
       </c>
       <c r="C123" t="n">
-        <v>179.3009108884119</v>
+        <v>55.78992163530847</v>
       </c>
       <c r="D123" t="n">
-        <v>190</v>
+        <v>64</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>3D0-838</t>
+          <t>2D6-678</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>92</v>
+        <v>226</v>
       </c>
       <c r="C124" t="n">
-        <v>169.1293888076211</v>
+        <v>56.42139529806831</v>
       </c>
       <c r="D124" t="n">
-        <v>190</v>
+        <v>66</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2D3-768</t>
+          <t>2D6-679</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="C125" t="n">
-        <v>102.9880212096848</v>
+        <v>66.8451524958117</v>
       </c>
       <c r="D125" t="n">
-        <v>113</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2D5-711</t>
+          <t>2D6-680</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C126" t="n">
-        <v>46.53701456779628</v>
+        <v>53.08670829011297</v>
       </c>
       <c r="D126" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2D5-705</t>
+          <t>2D6-682</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C127" t="n">
-        <v>42.0803382337028</v>
+        <v>54.78754697746403</v>
       </c>
       <c r="D127" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1D0-853</t>
+          <t>2D6-683</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>86</v>
+        <v>240</v>
       </c>
       <c r="C128" t="n">
-        <v>174.0012612983912</v>
+        <v>43.75389721447296</v>
       </c>
       <c r="D128" t="n">
-        <v>197</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1D3-774</t>
+          <t>2D6-684</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="C129" t="n">
-        <v>86.02289381613686</v>
+        <v>47.60777114939946</v>
       </c>
       <c r="D129" t="n">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1D3-760</t>
+          <t>2D6-685</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="C130" t="n">
-        <v>93.94772171942613</v>
+        <v>45.73672713604378</v>
       </c>
       <c r="D130" t="n">
-        <v>108</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1D5-719</t>
+          <t>2D6-686</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="C131" t="n">
-        <v>50.46026076907617</v>
+        <v>67.80079931618017</v>
       </c>
       <c r="D131" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2D2-792</t>
+          <t>3D0-831</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>167</v>
+        <v>82</v>
       </c>
       <c r="C132" t="n">
-        <v>109.7859947743976</v>
+        <v>171.6147564317587</v>
       </c>
       <c r="D132" t="n">
-        <v>122</v>
+        <v>182</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2D2-790</t>
+          <t>3D0-833</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="C133" t="n">
-        <v>101.6732297267631</v>
+        <v>158.8915656472422</v>
       </c>
       <c r="D133" t="n">
-        <v>118</v>
+        <v>175</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1D3-776</t>
+          <t>3D0-834</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="C134" t="n">
-        <v>88.12573713181163</v>
+        <v>146.7297564023914</v>
       </c>
       <c r="D134" t="n">
-        <v>103</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1D0-851</t>
+          <t>3D0-835</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C135" t="n">
-        <v>148.9811707614422</v>
+        <v>154.1151541639584</v>
       </c>
       <c r="D135" t="n">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2D5-707</t>
+          <t>3D0-836</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>234</v>
+        <v>93</v>
       </c>
       <c r="C136" t="n">
-        <v>44.70462513884112</v>
+        <v>153.0791359631382</v>
       </c>
       <c r="D136" t="n">
-        <v>51</v>
+        <v>170</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2D5-706</t>
+          <t>3D0-837</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>238</v>
+        <v>82</v>
       </c>
       <c r="C137" t="n">
-        <v>45.07688250940108</v>
+        <v>168.9177067457539</v>
       </c>
       <c r="D137" t="n">
-        <v>48</v>
+        <v>185</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2D5-712</t>
+          <t>3D0-838</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>232</v>
+        <v>92</v>
       </c>
       <c r="C138" t="n">
-        <v>46.66322771336582</v>
+        <v>169.1293888076211</v>
       </c>
       <c r="D138" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1D0-850</t>
+          <t>3D0-839</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C139" t="n">
-        <v>154.264830479677</v>
+        <v>179.3009108884119</v>
       </c>
       <c r="D139" t="n">
-        <v>163</v>
+        <v>190</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1D3-777</t>
+          <t>3D1-805</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="C140" t="n">
-        <v>103.7610007865595</v>
+        <v>148.0394799007835</v>
       </c>
       <c r="D140" t="n">
-        <v>121</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2D2-791</t>
+          <t>3D1-806</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="C141" t="n">
-        <v>117.8777181616775</v>
+        <v>143.0240013411976</v>
       </c>
       <c r="D141" t="n">
-        <v>132</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1D5-722</t>
+          <t>3D1-807</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>235</v>
+        <v>111</v>
       </c>
       <c r="C142" t="n">
-        <v>48.55192938209332</v>
+        <v>125.5498580882924</v>
       </c>
       <c r="D142" t="n">
-        <v>55</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2D2-795</t>
+          <t>3D1-808</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="C143" t="n">
-        <v>95.10501837465291</v>
+        <v>133.3665127261863</v>
       </c>
       <c r="D143" t="n">
-        <v>105</v>
+        <v>148</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1D3-773</t>
+          <t>3D1-809</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="C144" t="n">
-        <v>90.54594908069167</v>
+        <v>133.8928876999556</v>
       </c>
       <c r="D144" t="n">
-        <v>108</v>
+        <v>151</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1D4-733</t>
+          <t>3D1-810</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>238</v>
+        <v>94</v>
       </c>
       <c r="C145" t="n">
-        <v>66.58756612188652</v>
+        <v>156.5028214067498</v>
       </c>
       <c r="D145" t="n">
-        <v>84</v>
+        <v>173</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1D4-727</t>
+          <t>3D1-812</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>219</v>
+        <v>113</v>
       </c>
       <c r="C146" t="n">
-        <v>63.55475447062163</v>
+        <v>154.1819652514557</v>
       </c>
       <c r="D146" t="n">
-        <v>75</v>
+        <v>176</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2D0-848</t>
+          <t>3D1-813</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C147" t="n">
-        <v>148.103124210116</v>
+        <v>162.1931739176235</v>
       </c>
       <c r="D147" t="n">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>3D1-812</t>
+          <t>3D2-796</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C148" t="n">
-        <v>154.1819652514557</v>
+        <v>130.8017106259207</v>
       </c>
       <c r="D148" t="n">
-        <v>176</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>3D1-806</t>
+          <t>3D2-797</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="C149" t="n">
-        <v>143.0240013411976</v>
+        <v>130.2123812603886</v>
       </c>
       <c r="D149" t="n">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>3D1-807</t>
+          <t>3D2-798</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C150" t="n">
-        <v>125.5498580882924</v>
+        <v>128.4566865227476</v>
       </c>
       <c r="D150" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>3D1-813</t>
+          <t>3D2-799</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="C151" t="n">
-        <v>162.1931739176235</v>
+        <v>109.3852228331833</v>
       </c>
       <c r="D151" t="n">
-        <v>176</v>
+        <v>123</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1D4-726</t>
+          <t>3D2-801</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>239</v>
+        <v>166</v>
       </c>
       <c r="C152" t="n">
-        <v>61.2739662761</v>
+        <v>101.8659086010483</v>
       </c>
       <c r="D152" t="n">
-        <v>75</v>
+        <v>116</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1D4-732</t>
+          <t>3D2-802</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c r="C153" t="n">
-        <v>60.15573464295142</v>
+        <v>107.6421745603646</v>
       </c>
       <c r="D153" t="n">
-        <v>74</v>
+        <v>122</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1D3-772</t>
+          <t>3D2-803</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="C154" t="n">
-        <v>112.0880725594096</v>
+        <v>107.9649971274382</v>
       </c>
       <c r="D154" t="n">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1D0-855</t>
+          <t>3D2-804</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="C155" t="n">
-        <v>176.8606219252921</v>
+        <v>126.2632128943804</v>
       </c>
       <c r="D155" t="n">
-        <v>196</v>
+        <v>142</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2D2-794</t>
+          <t>3D5-696</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="C156" t="n">
-        <v>111.3376302223688</v>
+        <v>55.73365504987279</v>
       </c>
       <c r="D156" t="n">
-        <v>126</v>
+        <v>58</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2D4-738</t>
+          <t>3D5-697</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="C157" t="n">
-        <v>72.30095420723866</v>
+        <v>47.60885324979554</v>
       </c>
       <c r="D157" t="n">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>1D5-721</t>
+          <t>3D5-698</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C158" t="n">
-        <v>50.2794977586822</v>
+        <v>43.70679984386613</v>
       </c>
       <c r="D158" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1D3-758</t>
+          <t>3D5-699</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>171</v>
+        <v>238</v>
       </c>
       <c r="C159" t="n">
-        <v>90.52472410343866</v>
+        <v>43.33599427896689</v>
       </c>
       <c r="D159" t="n">
-        <v>104</v>
+        <v>47</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>1D0-857</t>
+          <t>3D5-700</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="C160" t="n">
-        <v>161.9949116064566</v>
+        <v>52.00605870080878</v>
       </c>
       <c r="D160" t="n">
-        <v>174</v>
+        <v>59</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1D3-770</t>
+          <t>3D5-701</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>151</v>
+        <v>224</v>
       </c>
       <c r="C161" t="n">
-        <v>117.5253339665104</v>
+        <v>48.83096763880334</v>
       </c>
       <c r="D161" t="n">
-        <v>141</v>
+        <v>56</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1D4-730</t>
+          <t>3D5-702</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C162" t="n">
-        <v>48.53139872387565</v>
+        <v>45.4603955656819</v>
       </c>
       <c r="D162" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>3D1-805</t>
+          <t>3D5-704</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="C163" t="n">
-        <v>148.0394799007835</v>
+        <v>53.97299948051948</v>
       </c>
       <c r="D163" t="n">
-        <v>165</v>
+        <v>57</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>3D6-689</t>
+          <t>3D5-725</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C164" t="n">
-        <v>41.13185039550089</v>
+        <v>44.01354894292214</v>
       </c>
       <c r="D164" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>3D6-688</t>
+          <t>3D6-687</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C165" t="n">
-        <v>48.26004916510951</v>
+        <v>37.31860685297278</v>
       </c>
       <c r="D165" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>3D1-810</t>
+          <t>3D6-688</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>94</v>
+        <v>230</v>
       </c>
       <c r="C166" t="n">
-        <v>156.5028214067498</v>
+        <v>48.26004916510951</v>
       </c>
       <c r="D166" t="n">
-        <v>173</v>
+        <v>52</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>1D4-731</t>
+          <t>3D6-689</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C167" t="n">
-        <v>57.72504395619936</v>
+        <v>41.13185039550089</v>
       </c>
       <c r="D167" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1D3-771</t>
+          <t>3D6-690</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="C168" t="n">
-        <v>117.0263387880266</v>
+        <v>47.84607859637313</v>
       </c>
       <c r="D168" t="n">
-        <v>147</v>
+        <v>57</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>1D0-856</t>
+          <t>3D6-691</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>87</v>
+        <v>233</v>
       </c>
       <c r="C169" t="n">
-        <v>170.5740888661486</v>
+        <v>52.63266135969096</v>
       </c>
       <c r="D169" t="n">
-        <v>186</v>
+        <v>63</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1D3-759</t>
+          <t>3D6-693</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="C170" t="n">
-        <v>83.99439185515644</v>
+        <v>47.55061896649631</v>
       </c>
       <c r="D170" t="n">
-        <v>97</v>
+        <v>55</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1D5-720</t>
+          <t>3D6-694</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C171" t="n">
-        <v>49.15935521407304</v>
+        <v>46.73851492432586</v>
       </c>
       <c r="D171" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2D4-739</t>
+          <t>3D6-695</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="C172" t="n">
-        <v>65.38565429422921</v>
+        <v>43.08197658634505</v>
       </c>
       <c r="D172" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>